--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1298.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1298.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9584783117892581</v>
+        <v>1.116910696029663</v>
       </c>
       <c r="B1">
-        <v>2.334618529185296</v>
+        <v>2.258161067962646</v>
       </c>
       <c r="C1">
-        <v>5.744943936532436</v>
+        <v>10.4215784072876</v>
       </c>
       <c r="D1">
-        <v>2.312103636623634</v>
+        <v>1.711314082145691</v>
       </c>
       <c r="E1">
-        <v>1.298478990847988</v>
+        <v>1.29023003578186</v>
       </c>
     </row>
   </sheetData>
